--- a/input/index_Template.xlsx
+++ b/input/index_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00069749\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwa-my.sharepoint.com/personal/00116505_uwa_edu_au/Documents/Desktop/NovaCAnton_Anth28S_qPCR_setup_pooling-main/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD8115E-F438-4831-B198-FD41D6EA57B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{1AD8115E-F438-4831-B198-FD41D6EA57B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C52FB1DD-243E-485C-B948-F22D47243763}"/>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="1755" windowWidth="16200" windowHeight="10200" firstSheet="3" activeTab="5" xr2:uid="{4F2E3ACD-65A3-4781-BB8A-039CB6C2BB4D}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{4F2E3ACD-65A3-4781-BB8A-039CB6C2BB4D}"/>
   </bookViews>
   <sheets>
     <sheet name="16S_index" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="MiFishUE2_index" sheetId="7" r:id="rId4"/>
     <sheet name="MarVer1_index" sheetId="5" r:id="rId5"/>
     <sheet name="COILeray_index" sheetId="6" r:id="rId6"/>
+    <sheet name="Anth28S_index" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="1275">
   <si>
     <t>primer_num</t>
   </si>
@@ -3434,13 +3435,445 @@
   </si>
   <si>
     <t>TGGGCGGT</t>
+  </si>
+  <si>
+    <t>F1_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>TAAGGCGACGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F2_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>CGTACTAGCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F3_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>AGGCAGAACGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F4_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>TCCTGAGCCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F5_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>GGACTCCTCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F6_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>TAGGCATGCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F7_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>CTCTCTACCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F8_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>CAGAGAGGCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F9_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>GCTACGCTCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F10_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>CGAGGCTGCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F11_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>AAGAGGCACGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F12_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>GTAGAGGACGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F13_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>TGGATCTGCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F14_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>CCGTTTGTCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F15_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>TGCTGGGTCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F16_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>AGGTTGGGCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F17_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>GTGTGGTGCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F18_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>TGGGTTTCCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F19_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>TGGTCACACGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F20_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>TTGACCCTCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F21_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>CGCGGACACGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F22_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>TTCCATATCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F23_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>AATTCGTTCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F24_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>GGCGTCGACGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F25_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>ACAAAGTGCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F26_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>TACTTGAACGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F27_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>GTGATAGCCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F28_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>AGTAGATTCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F29_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>ATTGCCGGCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F30_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>TTGCTAAGCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F31_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>ATAAGTTACGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F32_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>ATCACTCGCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F33_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>GTTAACAGCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F34_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>AATGGTAGCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F35_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>GAGCACGTCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F36_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>TTTCGTCACGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F37_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>CAAGAATTCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F38_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>GAAATGCCCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F39_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>AACGCCATCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F40_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>CCTCGCAGCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F41_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>TACACCTCCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F42_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>GGTCATTTCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F43_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>CAATCTTACGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F44_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>TGTGCCTTCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F45_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>TCTTATTACGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F46_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>GACTTAGTCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F47_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>AGACCAGCCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>F48_28S-Anth-F</t>
+  </si>
+  <si>
+    <t>AAATACAGCGTGAAACCGYTRRAAGGG</t>
+  </si>
+  <si>
+    <t>R9_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>TGGAAATCTTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R10_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>AACATGATTTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R11_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>TGATGAAATTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R12_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>GTCGGACTTTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R13_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>TTTCTAGCTTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R14_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>TAACCAAGTTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R15_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>GTGTATCGTTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R16_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>TCCATCAATTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R17_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>TTCGTGCATTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R18_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>AGGTTGCCTTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R19_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>CCTTATGTTTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R20_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>CAGCAACGTTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R21_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>GGTTCAATTTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R22_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>ACATTCGTTTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R23_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>GATTCCCATTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R24_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>CGGACTGCTTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R25_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>AGCCGTTCTTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R26_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>ATTGGGTCTTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R27_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>TGCATACTTTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R28_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>GGGCTTGGTTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R29_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>GACGTGGCTTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R30_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>GCAAATTTTTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R31_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>GCAGCCTCTTGGTCCGTGTTTCAAGACG</t>
+  </si>
+  <si>
+    <t>R32_28S-Anth-R</t>
+  </si>
+  <si>
+    <t>TCCGAGTTTTGGTCCGTGTTTCAAGACG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3502,6 +3935,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -10298,8 +10737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35361E15-0365-4022-A696-91565217FD45}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11552,6 +11991,1270 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74E1F8C-02F9-428A-ADA8-E1659C1A5527}">
+  <dimension ref="A1:E73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>351</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>355</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>359</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>363</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>367</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>978</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>982</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>375</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>986</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>379</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>383</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>994</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>998</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>391</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>395</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>399</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>403</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>407</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>411</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>415</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>419</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>423</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>426</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>429</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>432</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>435</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>438</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>441</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>444</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>447</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>450</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>453</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>457</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>461</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>465</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>469</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>473</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>509</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>513</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>517</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>521</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>525</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>529</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>533</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>537</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>541</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>545</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>687</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>690</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>693</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>696</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>699</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>702</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>705</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>708</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>549</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>553</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>557</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>561</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>565</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>568</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11577,8 +13280,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016C82931803BF94684D62330E359ACE7" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="798349fe76adb2afcb0fba4a9d7dac25">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8776adc8-282a-4073-b44b-e3b5ad797728" xmlns:ns3="e19eda2f-2a61-44e3-a391-8f02abd9f5ab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5c116a4fec2bdc4687848bfa760e96db" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016C82931803BF94684D62330E359ACE7" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d83954054e138fb8dbf45a0ef3e5f22a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8776adc8-282a-4073-b44b-e3b5ad797728" xmlns:ns3="e19eda2f-2a61-44e3-a391-8f02abd9f5ab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4539317776363280685762f2905da31a" ns2:_="" ns3:_="">
     <xsd:import namespace="8776adc8-282a-4073-b44b-e3b5ad797728"/>
     <xsd:import namespace="e19eda2f-2a61-44e3-a391-8f02abd9f5ab"/>
     <xsd:element name="properties">
@@ -11601,6 +13304,7 @@
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -11666,6 +13370,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="23" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
@@ -11831,20 +13540,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EBB78D2-2689-445A-9752-A4D4780E3952}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8776adc8-282a-4073-b44b-e3b5ad797728"/>
-    <ds:schemaRef ds:uri="e19eda2f-2a61-44e3-a391-8f02abd9f5ab"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170876D0-3EBF-4E75-9969-0D5F7D50C50F}"/>
 </file>